--- a/LoopGame/LoopGame/Content/csv/TestStage06.xlsx
+++ b/LoopGame/LoopGame/Content/csv/TestStage06.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="11808" windowHeight="8064"/>
   </bookViews>
   <sheets>
-    <sheet name="TestStage05" sheetId="1" r:id="rId1"/>
+    <sheet name="TestStage06" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,6 +21,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,7 +391,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -409,7 +413,7 @@
         <v>1</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1">
         <v>1</v>
@@ -418,10 +422,10 @@
         <v>1</v>
       </c>
       <c r="H1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1">
         <v>1</v>
@@ -456,22 +460,22 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -506,25 +510,25 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -559,22 +563,22 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -609,22 +613,22 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -656,19 +660,19 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -697,43 +701,43 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -759,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -771,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -809,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -818,10 +822,10 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>1</v>

--- a/LoopGame/LoopGame/Content/csv/TestStage06.xlsx
+++ b/LoopGame/LoopGame/Content/csv/TestStage06.xlsx
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,7 +387,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -569,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -663,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>0</v>
